--- a/2des/bcd/aula03/onibus_dados.xlsx
+++ b/2des/bcd/aula03/onibus_dados.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Itinerários" sheetId="1" r:id="rId1"/>
-    <sheet name="Escalas" sheetId="2" r:id="rId2"/>
+    <sheet name="Exp-Itinerários" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp-Escala" sheetId="2" r:id="rId2"/>
     <sheet name="Motoristas" sheetId="3" r:id="rId3"/>
-    <sheet name="Horários" sheetId="4" r:id="rId4"/>
+    <sheet name="Escalas" sheetId="7" r:id="rId4"/>
     <sheet name="Linhas" sheetId="6" r:id="rId5"/>
-    <sheet name="PontosDeParada" sheetId="5" r:id="rId6"/>
+    <sheet name="Horários" sheetId="4" r:id="rId6"/>
+    <sheet name="Pontos" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t>Motorista 1</t>
   </si>
@@ -169,27 +170,6 @@
     <t>IPÊ</t>
   </si>
   <si>
-    <t>ID_Linha</t>
-  </si>
-  <si>
-    <t>Horário</t>
-  </si>
-  <si>
-    <t>Linha1</t>
-  </si>
-  <si>
-    <t>Linha2</t>
-  </si>
-  <si>
-    <t>Linha3</t>
-  </si>
-  <si>
-    <t>Linha4</t>
-  </si>
-  <si>
-    <t>Linha5</t>
-  </si>
-  <si>
     <t>Campinas x Pedreira</t>
   </si>
   <si>
@@ -203,13 +183,85 @@
   </si>
   <si>
     <t>Campinas X Holambra</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Rua dos Alecrins, 21, Centro, Campinas, SP</t>
+  </si>
+  <si>
+    <t>Av. Norte Sul, 121, Cambuí, Campinas, SP</t>
+  </si>
+  <si>
+    <t>Praça Jair Mello, 34, Vila Silva, Pedreira, SP</t>
+  </si>
+  <si>
+    <t>Rua Tozzi, 16, Zambom, Jaguariúna, SP</t>
+  </si>
+  <si>
+    <t>Rua dos Melões, 220, Centro, Pedreira, SP</t>
+  </si>
+  <si>
+    <t>id_linha</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>400.825.752-75</t>
+  </si>
+  <si>
+    <t>400.825.752-76</t>
+  </si>
+  <si>
+    <t>400.825.752-77</t>
+  </si>
+  <si>
+    <t>150.663.437-19</t>
+  </si>
+  <si>
+    <t>Jurema de Souza Castro</t>
+  </si>
+  <si>
+    <t>Rua olivas, 14, Zambom, Jaguariúna, SP</t>
+  </si>
+  <si>
+    <t>(14)64500-3435</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
+    <t>pos_geografica</t>
+  </si>
+  <si>
+    <t>72V4+X3</t>
+  </si>
+  <si>
+    <t>71V4+X3</t>
+  </si>
+  <si>
+    <t>71V4+X4</t>
+  </si>
+  <si>
+    <t>72V4+X4</t>
+  </si>
+  <si>
+    <t>71V4+X5</t>
+  </si>
+  <si>
+    <t>72V4+X2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +279,14 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,11 +315,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -768,20 +829,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -789,10 +851,13 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -800,10 +865,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -811,10 +879,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -822,10 +893,13 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -833,113 +907,452 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.47916666666666702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.39583333333333298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.47916666666666702</v>
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44430</v>
       </c>
     </row>
   </sheetData>
@@ -952,60 +1365,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1015,72 +1429,373 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.39583333333333298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.47916666666666702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/2des/bcd/aula03/onibus_dados.xlsx
+++ b/2des/bcd/aula03/onibus_dados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Exp-Itinerários" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>Motorista 1</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>72V4+X2</t>
+  </si>
+  <si>
+    <t>Id_linha</t>
   </si>
 </sst>
 </file>
@@ -665,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -832,7 +837,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1365,7 +1372,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1439,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,11 +1715,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1721,7 +1726,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1731,8 +1736,11 @@
       <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1742,8 +1750,11 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1753,8 +1764,11 @@
       <c r="C3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1778,11 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +1792,11 @@
       <c r="C5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1786,8 +1806,11 @@
       <c r="C6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1797,8 +1820,15 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>